--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Comparison_le.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Comparison_le.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvlad\.openl-webstudio\user-workspace\admin\EPBDS-9041_9\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A261431F-FA76-406E-9C6E-56B4B8C89060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LE" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1825,7 +1839,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1849,7 +1863,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1859,6 +1873,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,7 +1927,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1931,11 +1951,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="ACT_H" xfId="2"/>
+    <cellStyle name="ACT_H" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1993,7 +2014,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2026,9 +2047,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2061,6 +2099,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2236,40 +2291,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AF381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="18.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="17.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="20" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.140625" style="1" collapsed="1"/>
-    <col min="28" max="32" width="9.140625" style="1"/>
-    <col min="33" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="25" max="25" width="20.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.109375" style="1" collapsed="1"/>
+    <col min="28" max="32" width="9.109375" style="1"/>
+    <col min="33" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
         <v>118</v>
       </c>
@@ -2297,7 +2354,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -2369,7 +2426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
@@ -2443,7 +2500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>117</v>
       </c>
@@ -2542,7 +2599,7 @@
         <v>= $X$b1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2638,7 +2695,7 @@
         <v>= $X$s1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2734,7 +2791,7 @@
         <v>= $X$i1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2830,7 +2887,7 @@
         <v>= $X$l1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2926,7 +2983,7 @@
         <v>= $X$f1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
@@ -3022,7 +3079,7 @@
         <v>= $X$d1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>37</v>
@@ -3119,7 +3176,7 @@
         <v>= $X$B1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3215,7 +3272,7 @@
         <v>= $X$S1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3311,7 +3368,7 @@
         <v>= $X$I1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
@@ -3407,7 +3464,7 @@
         <v>= $X$L1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
@@ -3503,7 +3560,7 @@
         <v>= $X$F1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
@@ -3599,7 +3656,7 @@
         <v>= $X$D1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
@@ -3695,7 +3752,7 @@
         <v>= $X$BI1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
@@ -3791,7 +3848,7 @@
         <v>= $X$BD1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
@@ -3887,7 +3944,7 @@
         <v>= $X$BV1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
@@ -3983,7 +4040,7 @@
         <v>= $X$SV1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
@@ -4079,7 +4136,7 @@
         <v>= $X$IV1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
@@ -4175,7 +4232,7 @@
         <v>= $X$LV1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
@@ -4271,7 +4328,7 @@
         <v>= $X$FV1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
@@ -4367,7 +4424,7 @@
         <v>= $X$DV1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
@@ -4463,7 +4520,7 @@
         <v>= $X$BIV1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
@@ -4559,7 +4616,7 @@
         <v>= $X$BDV1 &lt;= $BDV2$Y</v>
       </c>
     </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C33" s="11" t="s">
         <v>580</v>
       </c>
@@ -4589,7 +4646,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
         <v>53</v>
       </c>
@@ -4663,7 +4720,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
         <v>55</v>
       </c>
@@ -4737,7 +4794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C36" s="7">
         <v>1</v>
       </c>
@@ -4811,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C37" s="7">
         <v>-1</v>
       </c>
@@ -4885,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C38" s="6">
         <v>0</v>
       </c>
@@ -4959,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C39" s="6">
         <v>-15</v>
       </c>
@@ -5034,7 +5091,7 @@
       </c>
       <c r="AA39" s="9"/>
     </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C40" s="6">
         <v>-15</v>
       </c>
@@ -5109,7 +5166,7 @@
       </c>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C41" s="6"/>
       <c r="D41" s="8"/>
       <c r="E41" s="6" t="b">
@@ -5130,66 +5187,46 @@
       <c r="J41" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="K41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C42" s="6">
         <v>15</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="E42" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -5207,35 +5244,79 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C43" s="6"/>
       <c r="D43" s="8">
         <v>15</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-    </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="E43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C44" s="6">
         <v>15</v>
       </c>
@@ -5309,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C45" s="6">
         <v>-3</v>
       </c>
@@ -5383,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
         <v>581</v>
       </c>
@@ -5413,7 +5494,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
         <v>53</v>
       </c>
@@ -5487,7 +5568,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
         <v>55</v>
       </c>
@@ -5561,7 +5642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C52" s="7">
         <v>1</v>
       </c>
@@ -5635,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C53" s="7">
         <v>-1</v>
       </c>
@@ -5709,7 +5790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C54" s="6">
         <v>0</v>
       </c>
@@ -5783,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C55" s="6">
         <v>-15</v>
       </c>
@@ -5857,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C56" s="6">
         <v>-15</v>
       </c>
@@ -5931,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C57" s="6"/>
       <c r="D57" s="8"/>
       <c r="E57" s="6" t="b">
@@ -5952,66 +6033,46 @@
       <c r="J57" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="K57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C58" s="6">
         <v>15</v>
       </c>
       <c r="D58" s="8"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="E58" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -6029,35 +6090,79 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C59" s="6"/>
       <c r="D59" s="8">
         <v>15</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="E59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C60" s="6">
         <v>15</v>
       </c>
@@ -6131,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C61" s="6">
         <v>-3</v>
       </c>
@@ -6205,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C65" s="11" t="s">
         <v>582</v>
       </c>
@@ -6235,7 +6340,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C66" s="6" t="s">
         <v>53</v>
       </c>
@@ -6309,7 +6414,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C67" s="6" t="s">
         <v>55</v>
       </c>
@@ -6383,7 +6488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C68" s="7">
         <v>1</v>
       </c>
@@ -6457,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C69" s="7">
         <v>-1</v>
       </c>
@@ -6531,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C70" s="6">
         <v>0</v>
       </c>
@@ -6605,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C71" s="6">
         <v>-15</v>
       </c>
@@ -6679,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C72" s="6">
         <v>-15</v>
       </c>
@@ -6753,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C73" s="6"/>
       <c r="D73" s="8"/>
       <c r="E73" s="6" t="b">
@@ -6774,66 +6879,46 @@
       <c r="J73" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="K73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z73" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+    </row>
+    <row r="74" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C74" s="6">
         <v>15</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="E74" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -6851,35 +6936,79 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C75" s="6"/>
       <c r="D75" s="8">
         <v>15</v>
       </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
-    </row>
-    <row r="76" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="E75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C76" s="6">
         <v>15</v>
       </c>
@@ -6953,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C77" s="6">
         <v>-3</v>
       </c>
@@ -7027,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C81" s="11" t="s">
         <v>583</v>
       </c>
@@ -7057,7 +7186,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C82" s="6" t="s">
         <v>53</v>
       </c>
@@ -7131,7 +7260,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C83" s="6" t="s">
         <v>55</v>
       </c>
@@ -7205,7 +7334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C84" s="7">
         <v>1</v>
       </c>
@@ -7279,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C85" s="7">
         <v>-1</v>
       </c>
@@ -7353,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C86" s="6">
         <v>0</v>
       </c>
@@ -7427,7 +7556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C87" s="6">
         <v>-15</v>
       </c>
@@ -7501,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C88" s="6">
         <v>-15</v>
       </c>
@@ -7575,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C89" s="6"/>
       <c r="D89" s="8"/>
       <c r="E89" s="6" t="b">
@@ -7596,66 +7725,46 @@
       <c r="J89" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="K89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z89" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="13"/>
+      <c r="Y89" s="13"/>
+      <c r="Z89" s="13"/>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C90" s="6">
         <v>15</v>
       </c>
       <c r="D90" s="8"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="E90" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -7673,35 +7782,79 @@
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
     </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C91" s="6"/>
       <c r="D91" s="8">
         <v>15</v>
       </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="E91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C92" s="6">
         <v>15</v>
       </c>
@@ -7775,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C93" s="6">
         <v>-3</v>
       </c>
@@ -7849,7 +8002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C97" s="11" t="s">
         <v>584</v>
       </c>
@@ -7879,7 +8032,7 @@
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C98" s="6" t="s">
         <v>53</v>
       </c>
@@ -7953,7 +8106,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C99" s="6" t="s">
         <v>55</v>
       </c>
@@ -8027,7 +8180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C100" s="7">
         <v>1</v>
       </c>
@@ -8101,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C101" s="7">
         <v>-1</v>
       </c>
@@ -8175,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C102" s="6">
         <v>0</v>
       </c>
@@ -8249,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C103" s="6">
         <v>-15</v>
       </c>
@@ -8323,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C104" s="6">
         <v>-15</v>
       </c>
@@ -8397,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C105" s="6"/>
       <c r="D105" s="8"/>
       <c r="E105" s="6" t="b">
@@ -8418,66 +8571,46 @@
       <c r="J105" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="K105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y105" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z105" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13"/>
+      <c r="V105" s="13"/>
+      <c r="W105" s="13"/>
+      <c r="X105" s="13"/>
+      <c r="Y105" s="13"/>
+      <c r="Z105" s="13"/>
+    </row>
+    <row r="106" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C106" s="6">
         <v>15</v>
       </c>
       <c r="D106" s="8"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
+      <c r="E106" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -8495,35 +8628,79 @@
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
     </row>
-    <row r="107" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C107" s="6"/>
       <c r="D107" s="8">
         <v>15</v>
       </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="6"/>
-      <c r="V107" s="6"/>
-      <c r="W107" s="6"/>
-      <c r="X107" s="6"/>
-      <c r="Y107" s="6"/>
-      <c r="Z107" s="6"/>
-    </row>
-    <row r="108" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="E107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y107" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C108" s="6">
         <v>15</v>
       </c>
@@ -8597,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C109" s="6">
         <v>-3</v>
       </c>
@@ -8671,7 +8848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C113" s="11" t="s">
         <v>585</v>
       </c>
@@ -8701,7 +8878,7 @@
       <c r="Y113" s="6"/>
       <c r="Z113" s="6"/>
     </row>
-    <row r="114" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C114" s="6" t="s">
         <v>53</v>
       </c>
@@ -8775,7 +8952,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C115" s="6" t="s">
         <v>55</v>
       </c>
@@ -8849,7 +9026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C116" s="7">
         <v>1</v>
       </c>
@@ -8923,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C117" s="7">
         <v>-1</v>
       </c>
@@ -8997,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C118" s="6">
         <v>0</v>
       </c>
@@ -9071,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C119" s="6">
         <v>-15</v>
       </c>
@@ -9145,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C120" s="6">
         <v>-15</v>
       </c>
@@ -9219,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C121" s="6"/>
       <c r="D121" s="8"/>
       <c r="E121" s="6" t="b">
@@ -9240,66 +9417,46 @@
       <c r="J121" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="K121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="U121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="V121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="W121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="X121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z121" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="13"/>
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="13"/>
+      <c r="U121" s="13"/>
+      <c r="V121" s="13"/>
+      <c r="W121" s="13"/>
+      <c r="X121" s="13"/>
+      <c r="Y121" s="13"/>
+      <c r="Z121" s="13"/>
+    </row>
+    <row r="122" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C122" s="6">
         <v>15</v>
       </c>
       <c r="D122" s="8"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
+      <c r="E122" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
@@ -9317,35 +9474,79 @@
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
     </row>
-    <row r="123" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C123" s="6"/>
       <c r="D123" s="8">
         <v>15</v>
       </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="6"/>
-      <c r="T123" s="6"/>
-      <c r="U123" s="6"/>
-      <c r="V123" s="6"/>
-      <c r="W123" s="6"/>
-      <c r="X123" s="6"/>
-      <c r="Y123" s="6"/>
-      <c r="Z123" s="6"/>
-    </row>
-    <row r="124" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="E123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y123" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z123" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C124" s="6">
         <v>15</v>
       </c>
@@ -9419,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C125" s="6">
         <v>-3</v>
       </c>
@@ -9493,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C129" s="11" t="s">
         <v>586</v>
       </c>
@@ -9523,7 +9724,7 @@
       <c r="Y129" s="6"/>
       <c r="Z129" s="6"/>
     </row>
-    <row r="130" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C130" s="6" t="s">
         <v>53</v>
       </c>
@@ -9597,7 +9798,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C131" s="6" t="s">
         <v>55</v>
       </c>
@@ -9671,7 +9872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C132" s="7">
         <v>1</v>
       </c>
@@ -9745,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C133" s="7">
         <v>-1</v>
       </c>
@@ -9819,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C134" s="6">
         <v>0</v>
       </c>
@@ -9893,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C135" s="6">
         <v>-15</v>
       </c>
@@ -9967,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C136" s="6">
         <v>-15</v>
       </c>
@@ -10041,27 +10242,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C137" s="6"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F137" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G137" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I137" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
       <c r="K137" s="6" t="b">
         <v>1</v>
       </c>
@@ -10111,17 +10300,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C138" s="6">
         <v>15</v>
       </c>
       <c r="D138" s="8"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
+      <c r="E138" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
@@ -10139,7 +10340,7 @@
       <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
     </row>
-    <row r="139" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C139" s="6"/>
       <c r="D139" s="8">
         <v>15</v>
@@ -10167,7 +10368,7 @@
       <c r="Y139" s="6"/>
       <c r="Z139" s="6"/>
     </row>
-    <row r="140" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C140" s="6">
         <v>15</v>
       </c>
@@ -10241,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C141" s="6">
         <v>-3</v>
       </c>
@@ -10315,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C145" s="11" t="s">
         <v>587</v>
       </c>
@@ -10345,7 +10546,7 @@
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
     </row>
-    <row r="146" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C146" s="6" t="s">
         <v>53</v>
       </c>
@@ -10419,7 +10620,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C147" s="6" t="s">
         <v>55</v>
       </c>
@@ -10493,7 +10694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C148" s="7">
         <v>1</v>
       </c>
@@ -10567,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C149" s="7">
         <v>-1</v>
       </c>
@@ -10641,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C150" s="6">
         <v>0</v>
       </c>
@@ -10715,7 +10916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C151" s="6">
         <v>-15</v>
       </c>
@@ -10789,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C152" s="6">
         <v>-15</v>
       </c>
@@ -10863,27 +11064,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C153" s="6"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F153" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G153" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I153" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
       <c r="K153" s="6" t="b">
         <v>1</v>
       </c>
@@ -10933,17 +11122,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C154" s="6">
         <v>15</v>
       </c>
       <c r="D154" s="8"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+      <c r="E154" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
@@ -10961,7 +11162,7 @@
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
     </row>
-    <row r="155" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C155" s="6"/>
       <c r="D155" s="8">
         <v>15</v>
@@ -10989,7 +11190,7 @@
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
     </row>
-    <row r="156" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C156" s="6">
         <v>15</v>
       </c>
@@ -11063,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C157" s="6">
         <v>-3</v>
       </c>
@@ -11137,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C161" s="11" t="s">
         <v>588</v>
       </c>
@@ -11167,7 +11368,7 @@
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
     </row>
-    <row r="162" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C162" s="6" t="s">
         <v>53</v>
       </c>
@@ -11241,7 +11442,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C163" s="6" t="s">
         <v>55</v>
       </c>
@@ -11315,7 +11516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C164" s="7">
         <v>1</v>
       </c>
@@ -11389,7 +11590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C165" s="7">
         <v>-1</v>
       </c>
@@ -11463,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C166" s="6">
         <v>0</v>
       </c>
@@ -11537,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C167" s="6">
         <v>-15</v>
       </c>
@@ -11611,7 +11812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C168" s="6">
         <v>-15</v>
       </c>
@@ -11685,27 +11886,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F169" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G169" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I169" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
       <c r="K169" s="6" t="b">
         <v>1</v>
       </c>
@@ -11755,17 +11944,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C170" s="6">
         <v>15</v>
       </c>
       <c r="D170" s="8"/>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
+      <c r="E170" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H170" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
@@ -11783,7 +11984,7 @@
       <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
     </row>
-    <row r="171" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" s="8">
         <v>15</v>
@@ -11811,7 +12012,7 @@
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
     </row>
-    <row r="172" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C172" s="6">
         <v>15</v>
       </c>
@@ -11885,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C173" s="6">
         <v>-3</v>
       </c>
@@ -11959,7 +12160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C177" s="11" t="s">
         <v>589</v>
       </c>
@@ -11989,7 +12190,7 @@
       <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
     </row>
-    <row r="178" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C178" s="6" t="s">
         <v>53</v>
       </c>
@@ -12063,7 +12264,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C179" s="6" t="s">
         <v>55</v>
       </c>
@@ -12137,7 +12338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C180" s="7">
         <v>1</v>
       </c>
@@ -12211,7 +12412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C181" s="7">
         <v>-1</v>
       </c>
@@ -12285,7 +12486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C182" s="6">
         <v>0</v>
       </c>
@@ -12359,7 +12560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C183" s="6">
         <v>-15</v>
       </c>
@@ -12433,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C184" s="6">
         <v>-15</v>
       </c>
@@ -12507,27 +12708,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C185" s="6"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F185" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G185" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I185" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
       <c r="K185" s="6" t="b">
         <v>1</v>
       </c>
@@ -12577,17 +12766,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C186" s="6">
         <v>15</v>
       </c>
       <c r="D186" s="8"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
+      <c r="E186" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H186" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
@@ -12605,7 +12806,7 @@
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
     </row>
-    <row r="187" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C187" s="6"/>
       <c r="D187" s="8">
         <v>15</v>
@@ -12633,7 +12834,7 @@
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
     </row>
-    <row r="188" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C188" s="6">
         <v>15</v>
       </c>
@@ -12707,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C189" s="6">
         <v>-3</v>
       </c>
@@ -12781,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C193" s="11" t="s">
         <v>590</v>
       </c>
@@ -12811,7 +13012,7 @@
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
     </row>
-    <row r="194" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C194" s="6" t="s">
         <v>53</v>
       </c>
@@ -12885,7 +13086,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="195" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C195" s="6" t="s">
         <v>55</v>
       </c>
@@ -12959,7 +13160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C196" s="7">
         <v>1</v>
       </c>
@@ -13033,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C197" s="7">
         <v>-1</v>
       </c>
@@ -13107,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C198" s="6">
         <v>0</v>
       </c>
@@ -13181,7 +13382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C199" s="6">
         <v>-15</v>
       </c>
@@ -13255,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C200" s="6">
         <v>-15</v>
       </c>
@@ -13329,27 +13530,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C201" s="6"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F201" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G201" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I201" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
       <c r="K201" s="6" t="b">
         <v>1</v>
       </c>
@@ -13399,17 +13588,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C202" s="6">
         <v>15</v>
       </c>
       <c r="D202" s="8"/>
-      <c r="E202" s="6"/>
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
-      <c r="J202" s="6"/>
+      <c r="E202" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F202" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G202" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H202" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K202" s="6"/>
       <c r="L202" s="6"/>
       <c r="M202" s="6"/>
@@ -13427,7 +13628,7 @@
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
     </row>
-    <row r="203" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C203" s="6"/>
       <c r="D203" s="8">
         <v>15</v>
@@ -13455,7 +13656,7 @@
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
     </row>
-    <row r="204" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C204" s="6">
         <v>15</v>
       </c>
@@ -13529,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C205" s="6">
         <v>-3</v>
       </c>
@@ -13603,7 +13804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C209" s="11" t="s">
         <v>591</v>
       </c>
@@ -13633,7 +13834,7 @@
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
     </row>
-    <row r="210" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C210" s="6" t="s">
         <v>53</v>
       </c>
@@ -13707,7 +13908,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="211" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C211" s="6" t="s">
         <v>55</v>
       </c>
@@ -13781,7 +13982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C212" s="7">
         <v>1</v>
       </c>
@@ -13855,7 +14056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C213" s="7">
         <v>-1</v>
       </c>
@@ -13929,7 +14130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C214" s="6">
         <v>0</v>
       </c>
@@ -14003,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C215" s="6">
         <v>-15</v>
       </c>
@@ -14077,7 +14278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C216" s="6">
         <v>-15</v>
       </c>
@@ -14151,27 +14352,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C217" s="6"/>
       <c r="D217" s="8"/>
-      <c r="E217" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F217" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G217" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I217" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
+      <c r="G217" s="13"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
       <c r="K217" s="6" t="b">
         <v>1</v>
       </c>
@@ -14221,17 +14410,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C218" s="6">
         <v>15</v>
       </c>
       <c r="D218" s="8"/>
-      <c r="E218" s="6"/>
-      <c r="F218" s="6"/>
-      <c r="G218" s="6"/>
-      <c r="H218" s="6"/>
-      <c r="I218" s="6"/>
-      <c r="J218" s="6"/>
+      <c r="E218" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F218" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G218" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H218" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I218" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
       <c r="M218" s="6"/>
@@ -14249,7 +14450,7 @@
       <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
     </row>
-    <row r="219" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C219" s="6"/>
       <c r="D219" s="8">
         <v>15</v>
@@ -14277,7 +14478,7 @@
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
     </row>
-    <row r="220" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C220" s="6">
         <v>15</v>
       </c>
@@ -14351,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C221" s="6">
         <v>-3</v>
       </c>
@@ -14425,7 +14626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C225" s="11" t="s">
         <v>592</v>
       </c>
@@ -14455,7 +14656,7 @@
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
     </row>
-    <row r="226" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C226" s="6" t="s">
         <v>53</v>
       </c>
@@ -14529,7 +14730,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="227" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C227" s="6" t="s">
         <v>55</v>
       </c>
@@ -14603,7 +14804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C228" s="7">
         <v>1</v>
       </c>
@@ -14677,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C229" s="7">
         <v>-1</v>
       </c>
@@ -14751,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C230" s="6">
         <v>0</v>
       </c>
@@ -14825,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C231" s="6">
         <v>-15</v>
       </c>
@@ -14899,7 +15100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C232" s="6">
         <v>-15</v>
       </c>
@@ -14973,27 +15174,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C233" s="6"/>
       <c r="D233" s="8"/>
-      <c r="E233" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F233" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G233" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I233" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
+      <c r="G233" s="13"/>
+      <c r="H233" s="13"/>
+      <c r="I233" s="13"/>
+      <c r="J233" s="13"/>
       <c r="K233" s="6" t="b">
         <v>1</v>
       </c>
@@ -15043,17 +15232,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C234" s="6">
         <v>15</v>
       </c>
       <c r="D234" s="8"/>
-      <c r="E234" s="6"/>
-      <c r="F234" s="6"/>
-      <c r="G234" s="6"/>
-      <c r="H234" s="6"/>
-      <c r="I234" s="6"/>
-      <c r="J234" s="6"/>
+      <c r="E234" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F234" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G234" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H234" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I234" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
@@ -15071,7 +15272,7 @@
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
     </row>
-    <row r="235" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C235" s="6"/>
       <c r="D235" s="8">
         <v>15</v>
@@ -15099,7 +15300,7 @@
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
     </row>
-    <row r="236" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C236" s="6">
         <v>15</v>
       </c>
@@ -15173,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C237" s="6">
         <v>-3</v>
       </c>
@@ -15247,7 +15448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C241" s="11" t="s">
         <v>593</v>
       </c>
@@ -15277,7 +15478,7 @@
       <c r="Y241" s="6"/>
       <c r="Z241" s="6"/>
     </row>
-    <row r="242" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C242" s="6" t="s">
         <v>53</v>
       </c>
@@ -15351,7 +15552,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="243" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C243" s="6" t="s">
         <v>55</v>
       </c>
@@ -15425,7 +15626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C244" s="7">
         <v>1</v>
       </c>
@@ -15499,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C245" s="7">
         <v>-1</v>
       </c>
@@ -15573,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C246" s="6">
         <v>0</v>
       </c>
@@ -15647,7 +15848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C247" s="6">
         <v>-15</v>
       </c>
@@ -15721,7 +15922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C248" s="6">
         <v>-15</v>
       </c>
@@ -15795,27 +15996,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C249" s="6"/>
       <c r="D249" s="8"/>
-      <c r="E249" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F249" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G249" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I249" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E249" s="13"/>
+      <c r="F249" s="13"/>
+      <c r="G249" s="13"/>
+      <c r="H249" s="13"/>
+      <c r="I249" s="13"/>
+      <c r="J249" s="13"/>
       <c r="K249" s="6" t="b">
         <v>1</v>
       </c>
@@ -15865,17 +16054,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C250" s="6">
         <v>15</v>
       </c>
       <c r="D250" s="8"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="6"/>
-      <c r="G250" s="6"/>
-      <c r="H250" s="6"/>
-      <c r="I250" s="6"/>
-      <c r="J250" s="6"/>
+      <c r="E250" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F250" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G250" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H250" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I250" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
@@ -15893,7 +16094,7 @@
       <c r="Y250" s="6"/>
       <c r="Z250" s="6"/>
     </row>
-    <row r="251" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C251" s="6"/>
       <c r="D251" s="8">
         <v>15</v>
@@ -15921,7 +16122,7 @@
       <c r="Y251" s="6"/>
       <c r="Z251" s="6"/>
     </row>
-    <row r="252" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C252" s="6">
         <v>15</v>
       </c>
@@ -15995,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C253" s="6">
         <v>-3</v>
       </c>
@@ -16069,7 +16270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C257" s="11" t="s">
         <v>594</v>
       </c>
@@ -16099,7 +16300,7 @@
       <c r="Y257" s="6"/>
       <c r="Z257" s="6"/>
     </row>
-    <row r="258" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C258" s="6" t="s">
         <v>53</v>
       </c>
@@ -16173,7 +16374,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="259" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C259" s="6" t="s">
         <v>55</v>
       </c>
@@ -16247,7 +16448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C260" s="7">
         <v>1</v>
       </c>
@@ -16321,7 +16522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C261" s="7">
         <v>-1</v>
       </c>
@@ -16395,7 +16596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C262" s="6">
         <v>0</v>
       </c>
@@ -16469,7 +16670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C263" s="6">
         <v>-15</v>
       </c>
@@ -16543,7 +16744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C264" s="6">
         <v>-15</v>
       </c>
@@ -16617,27 +16818,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C265" s="6"/>
       <c r="D265" s="8"/>
-      <c r="E265" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F265" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G265" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I265" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E265" s="13"/>
+      <c r="F265" s="13"/>
+      <c r="G265" s="13"/>
+      <c r="H265" s="13"/>
+      <c r="I265" s="13"/>
+      <c r="J265" s="13"/>
       <c r="K265" s="6" t="b">
         <v>1</v>
       </c>
@@ -16687,17 +16876,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C266" s="6">
         <v>15</v>
       </c>
       <c r="D266" s="8"/>
-      <c r="E266" s="6"/>
-      <c r="F266" s="6"/>
-      <c r="G266" s="6"/>
-      <c r="H266" s="6"/>
-      <c r="I266" s="6"/>
-      <c r="J266" s="6"/>
+      <c r="E266" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F266" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G266" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H266" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I266" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K266" s="6"/>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -16715,7 +16916,7 @@
       <c r="Y266" s="6"/>
       <c r="Z266" s="6"/>
     </row>
-    <row r="267" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C267" s="6"/>
       <c r="D267" s="8">
         <v>15</v>
@@ -16743,7 +16944,7 @@
       <c r="Y267" s="6"/>
       <c r="Z267" s="6"/>
     </row>
-    <row r="268" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C268" s="6">
         <v>15</v>
       </c>
@@ -16817,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C269" s="6">
         <v>-3</v>
       </c>
@@ -16891,7 +17092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C273" s="11" t="s">
         <v>595</v>
       </c>
@@ -16921,7 +17122,7 @@
       <c r="Y273" s="6"/>
       <c r="Z273" s="6"/>
     </row>
-    <row r="274" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C274" s="6" t="s">
         <v>53</v>
       </c>
@@ -16995,7 +17196,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="275" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C275" s="6" t="s">
         <v>55</v>
       </c>
@@ -17069,7 +17270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C276" s="7">
         <v>1</v>
       </c>
@@ -17143,7 +17344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C277" s="7">
         <v>-1</v>
       </c>
@@ -17217,7 +17418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C278" s="6">
         <v>0</v>
       </c>
@@ -17291,7 +17492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C279" s="6">
         <v>-15</v>
       </c>
@@ -17365,7 +17566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C280" s="6">
         <v>-15</v>
       </c>
@@ -17439,27 +17640,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C281" s="6"/>
       <c r="D281" s="8"/>
-      <c r="E281" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F281" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G281" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I281" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E281" s="13"/>
+      <c r="F281" s="13"/>
+      <c r="G281" s="13"/>
+      <c r="H281" s="13"/>
+      <c r="I281" s="13"/>
+      <c r="J281" s="13"/>
       <c r="K281" s="6" t="b">
         <v>1</v>
       </c>
@@ -17509,17 +17698,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C282" s="6">
         <v>15</v>
       </c>
       <c r="D282" s="8"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
-      <c r="H282" s="6"/>
-      <c r="I282" s="6"/>
-      <c r="J282" s="6"/>
+      <c r="E282" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F282" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G282" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H282" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I282" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K282" s="6"/>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
@@ -17537,7 +17738,7 @@
       <c r="Y282" s="6"/>
       <c r="Z282" s="6"/>
     </row>
-    <row r="283" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C283" s="6"/>
       <c r="D283" s="8">
         <v>15</v>
@@ -17565,7 +17766,7 @@
       <c r="Y283" s="6"/>
       <c r="Z283" s="6"/>
     </row>
-    <row r="284" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C284" s="6">
         <v>15</v>
       </c>
@@ -17639,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C285" s="6">
         <v>-3</v>
       </c>
@@ -17713,7 +17914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C289" s="11" t="s">
         <v>596</v>
       </c>
@@ -17743,7 +17944,7 @@
       <c r="Y289" s="6"/>
       <c r="Z289" s="6"/>
     </row>
-    <row r="290" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C290" s="6" t="s">
         <v>53</v>
       </c>
@@ -17817,7 +18018,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="291" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C291" s="6" t="s">
         <v>55</v>
       </c>
@@ -17891,7 +18092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C292" s="7">
         <v>1</v>
       </c>
@@ -17965,7 +18166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C293" s="7">
         <v>-1</v>
       </c>
@@ -18039,7 +18240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C294" s="6">
         <v>0</v>
       </c>
@@ -18113,7 +18314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C295" s="6">
         <v>-15</v>
       </c>
@@ -18187,7 +18388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C296" s="6">
         <v>-15</v>
       </c>
@@ -18261,27 +18462,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C297" s="6"/>
       <c r="D297" s="8"/>
-      <c r="E297" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F297" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G297" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H297" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I297" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J297" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E297" s="13"/>
+      <c r="F297" s="13"/>
+      <c r="G297" s="13"/>
+      <c r="H297" s="13"/>
+      <c r="I297" s="13"/>
+      <c r="J297" s="13"/>
       <c r="K297" s="6" t="b">
         <v>1</v>
       </c>
@@ -18331,17 +18520,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C298" s="6">
         <v>15</v>
       </c>
       <c r="D298" s="8"/>
-      <c r="E298" s="6"/>
-      <c r="F298" s="6"/>
-      <c r="G298" s="6"/>
-      <c r="H298" s="6"/>
-      <c r="I298" s="6"/>
-      <c r="J298" s="6"/>
+      <c r="E298" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F298" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G298" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H298" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I298" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J298" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K298" s="6"/>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
@@ -18359,7 +18560,7 @@
       <c r="Y298" s="6"/>
       <c r="Z298" s="6"/>
     </row>
-    <row r="299" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C299" s="6"/>
       <c r="D299" s="8">
         <v>15</v>
@@ -18387,7 +18588,7 @@
       <c r="Y299" s="6"/>
       <c r="Z299" s="6"/>
     </row>
-    <row r="300" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C300" s="6">
         <v>15</v>
       </c>
@@ -18461,7 +18662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C301" s="6">
         <v>-3</v>
       </c>
@@ -18535,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C305" s="11" t="s">
         <v>597</v>
       </c>
@@ -18565,7 +18766,7 @@
       <c r="Y305" s="6"/>
       <c r="Z305" s="6"/>
     </row>
-    <row r="306" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C306" s="6" t="s">
         <v>53</v>
       </c>
@@ -18639,7 +18840,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="307" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C307" s="6" t="s">
         <v>55</v>
       </c>
@@ -18713,7 +18914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C308" s="7">
         <v>1</v>
       </c>
@@ -18787,7 +18988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C309" s="7">
         <v>-1</v>
       </c>
@@ -18861,7 +19062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C310" s="6">
         <v>0</v>
       </c>
@@ -18935,7 +19136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C311" s="6">
         <v>-15</v>
       </c>
@@ -19009,7 +19210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C312" s="6">
         <v>-15</v>
       </c>
@@ -19083,27 +19284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C313" s="6"/>
       <c r="D313" s="8"/>
-      <c r="E313" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F313" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G313" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I313" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J313" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
+      <c r="H313" s="13"/>
+      <c r="I313" s="13"/>
+      <c r="J313" s="13"/>
       <c r="K313" s="6" t="b">
         <v>1</v>
       </c>
@@ -19153,17 +19342,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C314" s="6">
         <v>15</v>
       </c>
       <c r="D314" s="8"/>
-      <c r="E314" s="6"/>
-      <c r="F314" s="6"/>
-      <c r="G314" s="6"/>
-      <c r="H314" s="6"/>
-      <c r="I314" s="6"/>
-      <c r="J314" s="6"/>
+      <c r="E314" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F314" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G314" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H314" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I314" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J314" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K314" s="6"/>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
@@ -19181,7 +19382,7 @@
       <c r="Y314" s="6"/>
       <c r="Z314" s="6"/>
     </row>
-    <row r="315" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C315" s="6"/>
       <c r="D315" s="8">
         <v>15</v>
@@ -19209,7 +19410,7 @@
       <c r="Y315" s="6"/>
       <c r="Z315" s="6"/>
     </row>
-    <row r="316" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C316" s="6">
         <v>15</v>
       </c>
@@ -19283,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C317" s="6">
         <v>-3</v>
       </c>
@@ -19357,7 +19558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C321" s="11" t="s">
         <v>598</v>
       </c>
@@ -19387,7 +19588,7 @@
       <c r="Y321" s="6"/>
       <c r="Z321" s="6"/>
     </row>
-    <row r="322" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C322" s="6" t="s">
         <v>53</v>
       </c>
@@ -19461,7 +19662,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="323" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C323" s="6" t="s">
         <v>55</v>
       </c>
@@ -19535,7 +19736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C324" s="7">
         <v>1</v>
       </c>
@@ -19609,7 +19810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C325" s="7">
         <v>-1</v>
       </c>
@@ -19683,7 +19884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C326" s="6">
         <v>0</v>
       </c>
@@ -19757,7 +19958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C327" s="6">
         <v>-15</v>
       </c>
@@ -19831,7 +20032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C328" s="6">
         <v>-15</v>
       </c>
@@ -19905,27 +20106,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C329" s="6"/>
       <c r="D329" s="8"/>
-      <c r="E329" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F329" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G329" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H329" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I329" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J329" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E329" s="13"/>
+      <c r="F329" s="13"/>
+      <c r="G329" s="13"/>
+      <c r="H329" s="13"/>
+      <c r="I329" s="13"/>
+      <c r="J329" s="13"/>
       <c r="K329" s="6" t="b">
         <v>1</v>
       </c>
@@ -19975,17 +20164,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C330" s="6">
         <v>15</v>
       </c>
       <c r="D330" s="8"/>
-      <c r="E330" s="6"/>
-      <c r="F330" s="6"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="6"/>
-      <c r="I330" s="6"/>
-      <c r="J330" s="6"/>
+      <c r="E330" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F330" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G330" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H330" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I330" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J330" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K330" s="6"/>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
@@ -20003,7 +20204,7 @@
       <c r="Y330" s="6"/>
       <c r="Z330" s="6"/>
     </row>
-    <row r="331" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C331" s="6"/>
       <c r="D331" s="8">
         <v>15</v>
@@ -20031,7 +20232,7 @@
       <c r="Y331" s="6"/>
       <c r="Z331" s="6"/>
     </row>
-    <row r="332" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C332" s="6">
         <v>15</v>
       </c>
@@ -20105,7 +20306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C333" s="6">
         <v>-3</v>
       </c>
@@ -20179,7 +20380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C337" s="11" t="s">
         <v>599</v>
       </c>
@@ -20209,7 +20410,7 @@
       <c r="Y337" s="6"/>
       <c r="Z337" s="6"/>
     </row>
-    <row r="338" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C338" s="6" t="s">
         <v>53</v>
       </c>
@@ -20283,7 +20484,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="339" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C339" s="6" t="s">
         <v>55</v>
       </c>
@@ -20357,7 +20558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C340" s="7">
         <v>1</v>
       </c>
@@ -20431,7 +20632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C341" s="7">
         <v>-1</v>
       </c>
@@ -20505,7 +20706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C342" s="6">
         <v>0</v>
       </c>
@@ -20579,7 +20780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C343" s="6">
         <v>-15</v>
       </c>
@@ -20653,7 +20854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C344" s="6">
         <v>-15</v>
       </c>
@@ -20727,27 +20928,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C345" s="6"/>
       <c r="D345" s="8"/>
-      <c r="E345" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F345" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G345" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I345" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+      <c r="G345" s="13"/>
+      <c r="H345" s="13"/>
+      <c r="I345" s="13"/>
+      <c r="J345" s="13"/>
       <c r="K345" s="6" t="b">
         <v>1</v>
       </c>
@@ -20797,17 +20986,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C346" s="6">
         <v>15</v>
       </c>
       <c r="D346" s="8"/>
-      <c r="E346" s="6"/>
-      <c r="F346" s="6"/>
-      <c r="G346" s="6"/>
-      <c r="H346" s="6"/>
-      <c r="I346" s="6"/>
-      <c r="J346" s="6"/>
+      <c r="E346" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F346" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G346" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H346" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I346" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J346" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K346" s="6"/>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
@@ -20825,7 +21026,7 @@
       <c r="Y346" s="6"/>
       <c r="Z346" s="6"/>
     </row>
-    <row r="347" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C347" s="6"/>
       <c r="D347" s="8">
         <v>15</v>
@@ -20853,7 +21054,7 @@
       <c r="Y347" s="6"/>
       <c r="Z347" s="6"/>
     </row>
-    <row r="348" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C348" s="6">
         <v>15</v>
       </c>
@@ -20927,7 +21128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C349" s="6">
         <v>-3</v>
       </c>
@@ -21001,7 +21202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C353" s="11" t="s">
         <v>600</v>
       </c>
@@ -21031,7 +21232,7 @@
       <c r="Y353" s="6"/>
       <c r="Z353" s="6"/>
     </row>
-    <row r="354" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C354" s="6" t="s">
         <v>53</v>
       </c>
@@ -21105,7 +21306,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="355" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C355" s="6" t="s">
         <v>55</v>
       </c>
@@ -21179,7 +21380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="356" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C356" s="7">
         <v>1</v>
       </c>
@@ -21253,7 +21454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C357" s="7">
         <v>-1</v>
       </c>
@@ -21327,7 +21528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C358" s="6">
         <v>0</v>
       </c>
@@ -21401,7 +21602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C359" s="6">
         <v>-15</v>
       </c>
@@ -21475,7 +21676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C360" s="6">
         <v>-15</v>
       </c>
@@ -21549,27 +21750,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C361" s="6"/>
       <c r="D361" s="8"/>
-      <c r="E361" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F361" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G361" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H361" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I361" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J361" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E361" s="13"/>
+      <c r="F361" s="13"/>
+      <c r="G361" s="13"/>
+      <c r="H361" s="13"/>
+      <c r="I361" s="13"/>
+      <c r="J361" s="13"/>
       <c r="K361" s="6" t="b">
         <v>1</v>
       </c>
@@ -21619,17 +21808,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C362" s="6">
         <v>15</v>
       </c>
       <c r="D362" s="8"/>
-      <c r="E362" s="6"/>
-      <c r="F362" s="6"/>
-      <c r="G362" s="6"/>
-      <c r="H362" s="6"/>
-      <c r="I362" s="6"/>
-      <c r="J362" s="6"/>
+      <c r="E362" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F362" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G362" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H362" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I362" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J362" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K362" s="6"/>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
@@ -21647,7 +21848,7 @@
       <c r="Y362" s="6"/>
       <c r="Z362" s="6"/>
     </row>
-    <row r="363" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C363" s="6"/>
       <c r="D363" s="8">
         <v>15</v>
@@ -21675,7 +21876,7 @@
       <c r="Y363" s="6"/>
       <c r="Z363" s="6"/>
     </row>
-    <row r="364" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C364" s="6">
         <v>15</v>
       </c>
@@ -21749,7 +21950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C365" s="6">
         <v>-3</v>
       </c>
@@ -21823,7 +22024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C369" s="11" t="s">
         <v>601</v>
       </c>
@@ -21853,7 +22054,7 @@
       <c r="Y369" s="6"/>
       <c r="Z369" s="6"/>
     </row>
-    <row r="370" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C370" s="6" t="s">
         <v>53</v>
       </c>
@@ -21927,7 +22128,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="371" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C371" s="6" t="s">
         <v>55</v>
       </c>
@@ -22001,7 +22202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C372" s="7">
         <v>1</v>
       </c>
@@ -22075,7 +22276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C373" s="7">
         <v>-1</v>
       </c>
@@ -22149,7 +22350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C374" s="6">
         <v>0</v>
       </c>
@@ -22223,7 +22424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C375" s="6">
         <v>-15</v>
       </c>
@@ -22297,7 +22498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C376" s="6">
         <v>-15</v>
       </c>
@@ -22371,27 +22572,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C377" s="6"/>
       <c r="D377" s="8"/>
-      <c r="E377" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F377" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G377" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H377" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I377" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J377" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="E377" s="13"/>
+      <c r="F377" s="13"/>
+      <c r="G377" s="13"/>
+      <c r="H377" s="13"/>
+      <c r="I377" s="13"/>
+      <c r="J377" s="13"/>
       <c r="K377" s="6" t="b">
         <v>1</v>
       </c>
@@ -22441,17 +22630,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C378" s="6">
         <v>15</v>
       </c>
       <c r="D378" s="8"/>
-      <c r="E378" s="6"/>
-      <c r="F378" s="6"/>
-      <c r="G378" s="6"/>
-      <c r="H378" s="6"/>
-      <c r="I378" s="6"/>
-      <c r="J378" s="6"/>
+      <c r="E378" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F378" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G378" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H378" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I378" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J378" s="13" t="b">
+        <v>0</v>
+      </c>
       <c r="K378" s="6"/>
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
@@ -22469,7 +22670,7 @@
       <c r="Y378" s="6"/>
       <c r="Z378" s="6"/>
     </row>
-    <row r="379" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C379" s="6"/>
       <c r="D379" s="8">
         <v>15</v>
@@ -22497,7 +22698,7 @@
       <c r="Y379" s="6"/>
       <c r="Z379" s="6"/>
     </row>
-    <row r="380" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C380" s="6">
         <v>15</v>
       </c>
@@ -22571,7 +22772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C381" s="6">
         <v>-3</v>
       </c>
@@ -22647,6 +22848,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C241:D241"/>
     <mergeCell ref="C337:D337"/>
     <mergeCell ref="C353:D353"/>
     <mergeCell ref="C369:D369"/>
@@ -22655,21 +22871,6 @@
     <mergeCell ref="C289:D289"/>
     <mergeCell ref="C305:D305"/>
     <mergeCell ref="C321:D321"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
